--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3134687.407801623</v>
+        <v>3132435.328090416</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.03085908134881</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>77.77477680360967</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.09653235049818</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>142.6796929637946</v>
       </c>
       <c r="H5" t="n">
-        <v>125.8038519987756</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>140.2348378640727</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.21970892729165</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7083496784893</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>14.42881909501569</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>61.36917500887014</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358345</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>65.78783178799269</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165768</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.36264995190419</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057977</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076587</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.878520285688</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1398.916003345277</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1398.916003345277</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1013.127750747032</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>602.1418459574249</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>187.0693958024214</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285688</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1384.829779622645</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1015.867262682233</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D5" t="n">
-        <v>657.6015640754829</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="E5" t="n">
-        <v>657.6015640754829</v>
+        <v>557.1590183167818</v>
       </c>
       <c r="F5" t="n">
-        <v>246.6156592858753</v>
+        <v>550.2135175675784</v>
       </c>
       <c r="G5" t="n">
-        <v>235.5836131712759</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,13 +4565,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.429619686767</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,19 +4647,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>208.1634678100347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>208.1634678100347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>208.1634678100347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>208.1634678100347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>208.1634678100347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W7" t="n">
-        <v>377.0996507379416</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X7" t="n">
-        <v>377.0996507379416</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>377.0996507379416</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417424</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191801</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295725</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028708</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5182,19 +5182,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,25 +5887,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6303,13 +6303,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>551.263652184387</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2406.192730093489</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2223.337895748393</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2003.736430771334</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1714.661204115532</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1459.976715909645</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1170.559545872684</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>942.5699949746667</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>721.7774158311365</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
         <v>1577.52840832642</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393478</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.00954930701833</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>80.64613085857648</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.0125967582175</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137842</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054554</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26424,16 +26424,16 @@
         <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,16 +26442,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617903</v>
+        <v>-811863.8817617904</v>
       </c>
       <c r="C6" t="n">
         <v>516880.863965802</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="E6" t="n">
-        <v>263671.6991256013</v>
+        <v>263636.9612001656</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329563</v>
+        <v>589049.423007521</v>
       </c>
       <c r="H6" t="n">
-        <v>589084.1609329563</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="J6" t="n">
-        <v>371552.9585356789</v>
+        <v>371518.2206102434</v>
       </c>
       <c r="K6" t="n">
-        <v>589084.1609329561</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="L6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="M6" t="n">
-        <v>504029.1329974447</v>
+        <v>503994.3950720086</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329565</v>
+        <v>589049.4230075211</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.1609329563</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329563</v>
+        <v>589049.4230075208</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26975,16 +26975,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.6521825393341</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>216.8329875837108</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>248.1153058551147</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>268.2420326896589</v>
       </c>
       <c r="H5" t="n">
-        <v>168.8039123885449</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>4.520177050248037</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>90.54931640415025</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2133759749642</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>189.4891510446045</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>167.4277998651737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>-7.484429307644118e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665585</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454015</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
